--- a/app/GGGG-MM-DD-sm.xlsx
+++ b/app/GGGG-MM-DD-sm.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -90,9 +90,6 @@
     <t>Отд./корп</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>хлеб</t>
   </si>
   <si>
@@ -103,6 +100,9 @@
   </si>
   <si>
     <t>Выход, г</t>
+  </si>
+  <si>
+    <t>МБОУ "СОШ№1" г.Емвы</t>
   </si>
 </sst>
 </file>
@@ -784,7 +784,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -798,7 +798,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C1" s="39"/>
       <c r="D1" s="40"/>
@@ -841,13 +841,13 @@
         <v>3</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>5</v>
@@ -898,7 +898,7 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="34"/>
@@ -1048,7 +1048,7 @@
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="34"/>
